--- a/data/talents.xlsx
+++ b/data/talents.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\人生重来\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13319264-5230-48FB-B601-FE38E524A683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F33440-1349-49EC-8228-3642668C2CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2222,10 +2222,10 @@
   <dimension ref="A1:Q133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D129" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A45" sqref="A45:XFD45"/>
+      <selection pane="bottomRight" activeCell="C135" sqref="C135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.44140625" defaultRowHeight="39.6" customHeight="1" x14ac:dyDescent="0.25"/>
